--- a/资产负债表/300646.xlsx
+++ b/资产负债表/300646.xlsx
@@ -789,65 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>676935290.75</v>
+        <v>996794422.3099999</v>
       </c>
       <c r="P2" t="n">
-        <v>417712938.13</v>
+        <v>388880204.53</v>
       </c>
       <c r="Q2" t="n">
-        <v>19039727.63</v>
+        <v>26819204.79</v>
       </c>
       <c r="R2" t="n">
-        <v>37.0756932742</v>
+        <v>-64.27829816800001</v>
       </c>
       <c r="S2" t="n">
-        <v>89810195.90000001</v>
+        <v>86257169.16</v>
       </c>
       <c r="T2" t="n">
-        <v>39.079158076</v>
+        <v>1.363159096</v>
       </c>
       <c r="U2" t="n">
-        <v>15588376.52</v>
+        <v>24590639.25</v>
       </c>
       <c r="V2" t="n">
-        <v>15.229372319</v>
+        <v>28.814932169</v>
       </c>
       <c r="W2" t="n">
-        <v>228751896.88</v>
+        <v>246481891.98</v>
       </c>
       <c r="X2" t="n">
-        <v>12152580.44</v>
+        <v>24174829.53</v>
       </c>
       <c r="Y2" t="n">
-        <v>-45.8963729186</v>
+        <v>53.2080219766</v>
       </c>
       <c r="Z2" t="n">
-        <v>4831406.83</v>
+        <v>18124808.24</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.6800394081</v>
+        <v>5.2656924779</v>
       </c>
       <c r="AB2" t="n">
-        <v>448183393.87</v>
+        <v>750312530.33</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.6000289879</v>
+        <v>12.6270181572</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.3240874524</v>
+        <v>13.8363894769</v>
       </c>
       <c r="AE2" t="n">
-        <v>-33.1866621971</v>
+        <v>17.6830895047</v>
       </c>
       <c r="AF2" t="n">
-        <v>101.5808660439</v>
+        <v>212.5986447339</v>
       </c>
       <c r="AG2" t="n">
-        <v>33.7922841379</v>
+        <v>24.727454976</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
